--- a/原始数据/网点鑫e贷月度指标完成情况1223.xlsx
+++ b/原始数据/网点鑫e贷月度指标完成情况1223.xlsx
@@ -223,8 +223,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="24">
@@ -1661,10 +1661,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1673,10 +1673,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1685,19 +1685,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1706,10 +1706,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1724,10 +1724,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1766,7 +1766,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="37" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="39" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1808,7 +1808,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="50" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="50" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="51" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1817,7 +1817,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="52" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="52" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="53" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1829,7 +1829,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="54" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="54" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1847,7 +1847,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="56" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="56" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="56" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="27" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1859,7 +1859,7 @@
     <xf numFmtId="178" fontId="2" fillId="3" borderId="28" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="57" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="57" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1931,7 +1931,7 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
+      <numFmt numFmtId="177" formatCode="0_ "/>
     </dxf>
     <dxf>
       <font>
@@ -2251,8 +2251,8 @@
   <sheetPr/>
   <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:X48"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5629,7 +5629,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{411ad867-0cc5-4e93-8404-dc490feddeeb}</x14:id>
+          <x14:id>{e405df3c-94f8-4df3-94d3-2d84d842c76f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5641,7 +5641,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d8025e7b-cc44-4552-88be-1e55ae194e49}</x14:id>
+          <x14:id>{a725272f-73c6-4e2e-b0c1-e051a943ea7d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5653,7 +5653,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1e556176-66e8-4386-b7b6-c10f72f26afa}</x14:id>
+          <x14:id>{43d2b967-5291-4619-bec2-97d18f88a60f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5665,7 +5665,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4306a8ce-e758-4bd3-8786-224f5b0168de}</x14:id>
+          <x14:id>{df5ad776-c6cb-419f-8fac-456f7790c8ba}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5677,7 +5677,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{994d7eae-0825-46ea-958a-11f249e6ab19}</x14:id>
+          <x14:id>{717b3b64-4b33-43b8-ae00-3d39ea3e0138}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5709,7 +5709,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8300971a-3f0c-455e-ac15-baf2cc0e35d2}</x14:id>
+          <x14:id>{14330c18-a8a9-42a6-9dfe-a975330e0dfc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5721,7 +5721,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cdcf484c-505a-42dd-abb1-c21980fe110b}</x14:id>
+          <x14:id>{bc480686-cde5-4021-aa95-176756931c43}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5733,7 +5733,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c146e74a-b2d6-4de4-ab87-71a79d35cb7e}</x14:id>
+          <x14:id>{b6b3f0c3-b106-4cc4-8e17-0e4911d8a6e2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5745,7 +5745,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{82e90579-e439-4de0-9e2d-c8f63991c47d}</x14:id>
+          <x14:id>{a1aa8dfc-a975-40fc-aae6-35d21287748c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5757,7 +5757,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bbc109bc-7120-4e63-ab68-975cadb1af43}</x14:id>
+          <x14:id>{3f36cc1d-ad68-4c64-b3ee-5a38c8c9bc1f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5769,7 +5769,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{411ad867-0cc5-4e93-8404-dc490feddeeb}">
+          <x14:cfRule type="dataBar" id="{e405df3c-94f8-4df3-94d3-2d84d842c76f}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5779,7 +5779,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d8025e7b-cc44-4552-88be-1e55ae194e49}">
+          <x14:cfRule type="dataBar" id="{a725272f-73c6-4e2e-b0c1-e051a943ea7d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5791,7 +5791,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1e556176-66e8-4386-b7b6-c10f72f26afa}">
+          <x14:cfRule type="dataBar" id="{43d2b967-5291-4619-bec2-97d18f88a60f}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5799,7 +5799,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4306a8ce-e758-4bd3-8786-224f5b0168de}">
+          <x14:cfRule type="dataBar" id="{df5ad776-c6cb-419f-8fac-456f7790c8ba}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5811,7 +5811,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{994d7eae-0825-46ea-958a-11f249e6ab19}">
+          <x14:cfRule type="dataBar" id="{717b3b64-4b33-43b8-ae00-3d39ea3e0138}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5826,7 +5826,7 @@
           <xm:sqref>J4:J47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8300971a-3f0c-455e-ac15-baf2cc0e35d2}">
+          <x14:cfRule type="dataBar" id="{14330c18-a8a9-42a6-9dfe-a975330e0dfc}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5836,7 +5836,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cdcf484c-505a-42dd-abb1-c21980fe110b}">
+          <x14:cfRule type="dataBar" id="{bc480686-cde5-4021-aa95-176756931c43}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5848,7 +5848,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c146e74a-b2d6-4de4-ab87-71a79d35cb7e}">
+          <x14:cfRule type="dataBar" id="{b6b3f0c3-b106-4cc4-8e17-0e4911d8a6e2}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5856,7 +5856,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{82e90579-e439-4de0-9e2d-c8f63991c47d}">
+          <x14:cfRule type="dataBar" id="{a1aa8dfc-a975-40fc-aae6-35d21287748c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5868,7 +5868,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{bbc109bc-7120-4e63-ab68-975cadb1af43}">
+          <x14:cfRule type="dataBar" id="{3f36cc1d-ad68-4c64-b3ee-5a38c8c9bc1f}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
